--- a/biology/Botanique/Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières/Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières.xlsx
+++ b/biology/Botanique/Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières/Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_producteurs_de_l%27horticulture_et_des_p%C3%A9pini%C3%A8res</t>
+          <t>Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération nationale des producteurs de l'horticulture et des pépinières, ou FNPHP, est l'ancien nom du syndicat horticole, reconnu par les pouvoirs publics, qui assure la défense de l'intérêt général de tous les producteurs de végétaux d'ornement. En 2020 il devient « verdir »[1]. Il est une des associations spécialisées de la FNSEA.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération nationale des producteurs de l'horticulture et des pépinières, ou FNPHP, est l'ancien nom du syndicat horticole, reconnu par les pouvoirs publics, qui assure la défense de l'intérêt général de tous les producteurs de végétaux d'ornement. En 2020 il devient « verdir ». Il est une des associations spécialisées de la FNSEA.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_producteurs_de_l%27horticulture_et_des_p%C3%A9pini%C3%A8res</t>
+          <t>Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Représenter les entreprises lors des négociations de conventions collectives ;
 Aider les entreprises dans leurs projets collectifs ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_producteurs_de_l%27horticulture_et_des_p%C3%A9pini%C3%A8res</t>
+          <t>Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Métiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux métiers concernés sont[2] ̈ː
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux métiers concernés sont ̈ː
 Les floriculteurs, producteurs de fleurs à partir de graines ou par multiplication végétative
 Les pépiniéristes produisant des plants d'arbres et d'arbustes ornementaux
 ...
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_producteurs_de_l%27horticulture_et_des_p%C3%A9pini%C3%A8res</t>
+          <t>Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plus de 4000 entreprises[3];
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plus de 4000 entreprises;
 Près de 1,5 milliard € ;
 Plus de 20 000 emplois dont 14 000 permanents ;</t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_producteurs_de_l%27horticulture_et_des_p%C3%A9pini%C3%A8res</t>
+          <t>Fédération_nationale_des_producteurs_de_l'horticulture_et_des_pépinières</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018 la FNPHP s'était alarmée d’une décision de l’Office européen des brevets (OEB) affirmant qu’un «produit obtenu par un procédé essentiellement biologique est brevetable». Elle y voyait une « appropriation inacceptable » de la nature[4]. Par la suite, la Grande chambre des recours de l'Office européen des brevets a finalement tranché le 14 mai 2020 : les produits issus de procédés essentiellement biologiques, comme les procédés eux-mêmes, ne sont pas brevetables[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018 la FNPHP s'était alarmée d’une décision de l’Office européen des brevets (OEB) affirmant qu’un «produit obtenu par un procédé essentiellement biologique est brevetable». Elle y voyait une « appropriation inacceptable » de la nature. Par la suite, la Grande chambre des recours de l'Office européen des brevets a finalement tranché le 14 mai 2020 : les produits issus de procédés essentiellement biologiques, comme les procédés eux-mêmes, ne sont pas brevetables.
 </t>
         </is>
       </c>
